--- a/data/service.xlsx
+++ b/data/service.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Google Drive\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FEAD6-B705-4B6B-AA1F-924069B6C5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4328575-A0CE-4EFF-B101-25A88F1DCDD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>what</t>
   </si>
@@ -40,50 +40,88 @@
     <t>Reviewer</t>
   </si>
   <si>
-    <t>Elsevier Ltd.</t>
-  </si>
-  <si>
-    <t>Reviewed article journals</t>
-  </si>
-  <si>
     <t>Revista Brasileira de Herbicidas</t>
   </si>
   <si>
-    <t>ISSN 2236-1065</t>
-  </si>
-  <si>
     <t>Host</t>
   </si>
   <si>
     <t>PapoAgro podcast</t>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Podcast</t>
-  </si>
-  <si>
-    <t>Outreach</t>
-  </si>
-  <si>
-    <t>Serial Weed Killer</t>
-  </si>
-  <si>
-    <t>Agri-scientifical outreach</t>
-  </si>
-  <si>
     <t>serialweedkiller.netlify.app/</t>
   </si>
   <si>
     <t>Crop Protection</t>
+  </si>
+  <si>
+    <t>Bloguer</t>
+  </si>
+  <si>
+    <t>Agrarian</t>
+  </si>
+  <si>
+    <r>
+      <t>e-ISSN: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF111111"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1984-2538</t>
+    </r>
+  </si>
+  <si>
+    <t>ISSN: 0261-2194</t>
+  </si>
+  <si>
+    <t>ISSN: 2236-1065</t>
+  </si>
+  <si>
+    <t>Peer Reviews: 1</t>
+  </si>
+  <si>
+    <t>Peer Reviews: 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48 hours of published audio</t>
+    </r>
+  </si>
+  <si>
+    <t>Serial Weed Killer Agri-scientifical outreach</t>
+  </si>
+  <si>
+    <t>37 scientific posts</t>
+  </si>
+  <si>
+    <t>papoagro.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +278,24 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF111111"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -584,12 +640,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,7 +1005,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,13 +1040,13 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,47 +1057,64 @@
         <v>2018</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
